--- a/biology/Zoologie/Gnathiidae/Gnathiidae.xlsx
+++ b/biology/Zoologie/Gnathiidae/Gnathiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gnathiidae sont une famille de crustacés isopodes qui comprend 182 espèces. La taxonomie se fonde sur les individus mâles, les femelles et les juvéniles n'étant pas toujours spécifiquement identifiables de manière certaine. Les juvéniles sont parasites de poissons et sont appelés "larves praniza"[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gnathiidae sont une famille de crustacés isopodes qui comprend 182 espèces. La taxonomie se fonde sur les individus mâles, les femelles et les juvéniles n'étant pas toujours spécifiquement identifiables de manière certaine. Les juvéniles sont parasites de poissons et sont appelés "larves praniza".
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (11 septembre 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (11 septembre 2021) :
 Afrignathia Hadfield &amp; Smit, 2008
 Bathygnathia Dollfus, 1901
 Bythognathia Camp, 1988
